--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\robodk\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0323072-FD7A-43A2-A01D-9114D4B43DB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B2B4F4-1128-4284-8EFA-7FD1F6B4087B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15792" yWindow="5124" windowWidth="14400" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
-  <si>
-    <t>worst-case error</t>
-  </si>
-  <si>
-    <t>number of breakpooints</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>joint fit</t>
-  </si>
-  <si>
-    <t>average error</t>
   </si>
   <si>
     <t>slope threshold</t>
   </si>
   <si>
     <t>cartesian fit</t>
+  </si>
+  <si>
+    <t>number of breakpoints</t>
+  </si>
+  <si>
+    <t>worst-case orientation error (rad)</t>
+  </si>
+  <si>
+    <t>worst-case error (mm)</t>
+  </si>
+  <si>
+    <t>average error (mm)</t>
   </si>
 </sst>
 </file>
@@ -361,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F14"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -375,221 +378,242 @@
     <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>22.809023898958898</v>
+      </c>
+      <c r="E2">
+        <v>3.4944511519434E-2</v>
+      </c>
+      <c r="F2">
+        <v>2.1611715772203199</v>
+      </c>
+      <c r="G2">
+        <v>3.9062500000000002E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <v>5.6039725250138499</v>
+      </c>
+      <c r="E3">
+        <v>1.50453501716731E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.403978416907741</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9.7656250000000005E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>90</v>
       </c>
-      <c r="D2">
-        <v>1.4982191834987599</v>
-      </c>
-      <c r="E2">
-        <v>0.200904902875741</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D4">
+        <v>1.8116085071765999</v>
+      </c>
+      <c r="E4">
+        <v>1.8630843662461301E-3</v>
+      </c>
+      <c r="F4">
+        <v>0.200129902980027</v>
+      </c>
+      <c r="G4" s="1">
         <v>7.6293945312500004E-7</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>116</v>
       </c>
-      <c r="D3">
-        <v>1.37409791645968</v>
-      </c>
-      <c r="E3">
-        <v>0.18839449388024601</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="D5">
+        <v>1.6554653734434399</v>
+      </c>
+      <c r="E5">
+        <v>1.4162307199654901E-3</v>
+      </c>
+      <c r="F5">
+        <v>0.18710165130974701</v>
+      </c>
+      <c r="G5" s="1">
         <v>3.8146972656250002E-7</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3462</v>
-      </c>
-      <c r="D4">
-        <v>1.37613503834738</v>
-      </c>
-      <c r="E4">
-        <v>9.7473002997336106E-2</v>
-      </c>
-      <c r="F4" s="1">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3457</v>
+      </c>
+      <c r="D6">
+        <v>1.6507268726351001</v>
+      </c>
+      <c r="E6">
+        <v>1.20168713141536E-3</v>
+      </c>
+      <c r="F6">
+        <v>8.3406000745474898E-2</v>
+      </c>
+      <c r="G6" s="1">
         <v>9.5367431640625005E-8</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>54</v>
-      </c>
-      <c r="D5">
-        <v>21.090885711971001</v>
-      </c>
-      <c r="E5">
-        <v>2.1630217973201802</v>
-      </c>
-      <c r="F5">
-        <v>3.9062500000000002E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>70</v>
-      </c>
-      <c r="D6">
-        <v>4.9457747566600503</v>
-      </c>
-      <c r="E6">
-        <v>0.40293562822525197</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9.7656250000000005E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>17581</v>
       </c>
-      <c r="D7">
-        <v>9.9965042342069696E-2</v>
+      <c r="D7" s="1">
+        <v>1.22707026812499E-5</v>
       </c>
       <c r="E7">
-        <v>2.5087503318967599E-2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
+        <v>3.8704827254255599E-7</v>
+      </c>
+      <c r="G7" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>4.2169977399910197</v>
-      </c>
-      <c r="E9">
-        <v>0.61746499468471605</v>
-      </c>
-      <c r="F9" s="1">
+        <v>4.2342560986104996</v>
+      </c>
+      <c r="F9">
+        <v>0.606429322407812</v>
+      </c>
+      <c r="G9" s="1">
         <v>1.5625E-5</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>1.48313315262141</v>
-      </c>
-      <c r="E10">
-        <v>0.19794320047187799</v>
-      </c>
-      <c r="F10" s="1">
+        <v>1.46791724226411</v>
+      </c>
+      <c r="F10">
+        <v>0.190310378990484</v>
+      </c>
+      <c r="G10" s="1">
         <v>7.8125000000000002E-6</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>0.68582192858145896</v>
-      </c>
-      <c r="E11">
-        <v>8.4138813029876594E-2</v>
-      </c>
-      <c r="F11" s="1">
+        <v>0.69375278106666605</v>
+      </c>
+      <c r="F11">
+        <v>6.8266947341672699E-2</v>
+      </c>
+      <c r="G11" s="1">
         <v>3.9062500000000001E-6</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12">
-        <v>9.9974919647110194E-2</v>
-      </c>
-      <c r="E12">
-        <v>2.50727761882765E-2</v>
-      </c>
-      <c r="F12" s="1">
+        <v>1.1660591875656101E-3</v>
+      </c>
+      <c r="F12">
+        <v>2.36703680544758E-4</v>
+      </c>
+      <c r="G12" s="1">
         <v>1.953125E-6</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>56</v>
       </c>
       <c r="D13">
-        <v>9.9972576082677594E-2</v>
-      </c>
-      <c r="E13">
-        <v>2.5070549348174199E-2</v>
+        <v>8.6460622764372502E-4</v>
       </c>
       <c r="F13" s="1">
+        <v>3.9796548577208598E-5</v>
+      </c>
+      <c r="G13" s="1">
         <v>6.1035156250000001E-8</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>17581</v>
       </c>
-      <c r="D14">
-        <v>9.9967222776777706E-2</v>
-      </c>
-      <c r="E14">
-        <v>2.5070619893864901E-2</v>
+      <c r="D14" s="1">
+        <v>1.2950086717848401E-6</v>
       </c>
       <c r="F14" s="1">
+        <v>1.5432431398461399E-7</v>
+      </c>
+      <c r="G14" s="1">
         <v>-1</v>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\robodk\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\Robodk\Motion-Primitive-Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B2B4F4-1128-4284-8EFA-7FD1F6B4087B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6167131C-DFD2-4221-932D-8D37913B3C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15792" yWindow="5124" windowWidth="14400" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="2377" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>joint fit</t>
   </si>
@@ -46,6 +46,36 @@
   </si>
   <si>
     <t>average error (mm)</t>
+  </si>
+  <si>
+    <t>Total points</t>
+  </si>
+  <si>
+    <t>Total prediction points</t>
+  </si>
+  <si>
+    <t>Error calculation</t>
+  </si>
+  <si>
+    <t>||p_n (curve)-p_n (fit)||</t>
+  </si>
+  <si>
+    <t>Curve</t>
+  </si>
+  <si>
+    <t>0.1mm equaly separated waypoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int [1,17581] </t>
+  </si>
+  <si>
+    <t>Curve reference index</t>
+  </si>
+  <si>
+    <t>Curve data</t>
+  </si>
+  <si>
+    <t>R^3 for cartesian, R^6 for joints</t>
   </si>
 </sst>
 </file>
@@ -86,7 +116,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -364,21 +394,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="14.46484375" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -395,7 +425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -415,7 +445,7 @@
         <v>3.9062500000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -435,7 +465,7 @@
         <v>9.7656250000000005E-5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -454,8 +484,14 @@
       <c r="G4" s="1">
         <v>7.6293945312500004E-7</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -474,8 +510,14 @@
       <c r="G5" s="1">
         <v>3.8146972656250002E-7</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -494,8 +536,14 @@
       <c r="G6" s="1">
         <v>9.5367431640625005E-8</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -514,8 +562,22 @@
       <c r="G7" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>17581</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>17581</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -531,8 +593,14 @@
       <c r="G9" s="1">
         <v>1.5625E-5</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -549,7 +617,7 @@
         <v>7.8125000000000002E-6</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -566,7 +634,7 @@
         <v>3.9062500000000001E-6</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -583,7 +651,7 @@
         <v>1.953125E-6</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -600,7 +668,7 @@
         <v>6.1035156250000001E-8</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>2</v>
       </c>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\Robodk\Motion-Primitive-Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\robodk\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6167131C-DFD2-4221-932D-8D37913B3C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8599702A-A8C1-4EF2-970A-CA5900D3DD55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="2377" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>joint fit</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>R^3 for cartesian, R^6 for joints</t>
+  </si>
+  <si>
+    <t>Projection distance</t>
+  </si>
+  <si>
+    <t>d=50mm</t>
+  </si>
+  <si>
+    <t>Projection Point</t>
+  </si>
+  <si>
+    <t>Intersection point between eef z-direction &amp; curve normal plane</t>
   </si>
 </sst>
 </file>
@@ -116,7 +128,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,18 +409,18 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="14.46484375" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -424,126 +436,138 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>22.809023898958898</v>
+        <v>21.905089655897601</v>
       </c>
       <c r="E2">
-        <v>3.4944511519434E-2</v>
+        <v>4.6467953351036997E-2</v>
       </c>
       <c r="F2">
-        <v>2.1611715772203199</v>
+        <v>0.99486765590624404</v>
       </c>
       <c r="G2">
         <v>3.9062500000000002E-4</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>5.6039725250138499</v>
+        <v>3.1788747108017201</v>
       </c>
       <c r="E3">
-        <v>1.50453501716731E-2</v>
+        <v>1.8022439981076901E-2</v>
       </c>
       <c r="F3">
-        <v>0.403978416907741</v>
+        <v>0.10990143013126601</v>
       </c>
       <c r="G3" s="1">
         <v>9.7656250000000005E-5</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D4">
-        <v>1.8116085071765999</v>
+        <v>3.17744348562664</v>
       </c>
       <c r="E4">
-        <v>1.8630843662461301E-3</v>
+        <v>1.69047333146209E-2</v>
       </c>
       <c r="F4">
-        <v>0.200129902980027</v>
+        <v>0.10748949138012601</v>
       </c>
       <c r="G4" s="1">
-        <v>7.6293945312500004E-7</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="D5">
-        <v>1.6554653734434399</v>
+        <v>3.1774434819878299</v>
       </c>
       <c r="E5">
-        <v>1.4162307199654901E-3</v>
+        <v>8.1228986775286408E-3</v>
       </c>
       <c r="F5">
-        <v>0.18710165130974701</v>
+        <v>0.10105224832436401</v>
       </c>
       <c r="G5" s="1">
-        <v>3.8146972656250002E-7</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3457</v>
+        <v>610</v>
       </c>
       <c r="D6">
-        <v>1.6507268726351001</v>
+        <v>3.1767450920494502</v>
       </c>
       <c r="E6">
-        <v>1.20168713141536E-3</v>
+        <v>7.5930550955283903E-3</v>
       </c>
       <c r="F6">
-        <v>8.3406000745474898E-2</v>
+        <v>9.6938932767162603E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>9.5367431640625005E-8</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+        <v>3.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -551,13 +575,13 @@
         <v>17581</v>
       </c>
       <c r="D7" s="1">
-        <v>1.22707026812499E-5</v>
+        <v>1.1191930809544099E-2</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>3.8704827254255599E-7</v>
+        <v>5.3643524996022998E-3</v>
       </c>
       <c r="G7" s="1">
         <v>-1</v>
@@ -569,7 +593,7 @@
         <v>17581</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J8" t="s">
         <v>8</v>
       </c>
@@ -577,7 +601,7 @@
         <v>17581</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -600,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -617,7 +641,7 @@
         <v>7.8125000000000002E-6</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -634,7 +658,7 @@
         <v>3.9062500000000001E-6</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -651,7 +675,7 @@
         <v>1.953125E-6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -668,7 +692,7 @@
         <v>6.1035156250000001E-8</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>2</v>
       </c>
